--- a/data/TC05_VerifyCheckinCheckoutDate.xlsx
+++ b/data/TC05_VerifyCheckinCheckoutDate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>
@@ -61,19 +61,13 @@
     <t>1 - One</t>
   </si>
   <si>
-    <t>20/05/2016</t>
-  </si>
-  <si>
-    <t>21/05/2016</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
-    <t>arrival</t>
-  </si>
-  <si>
-    <t>depature</t>
+    <t>28/05/2016</t>
+  </si>
+  <si>
+    <t>29/05/2016</t>
   </si>
 </sst>
 </file>
@@ -109,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K1" sqref="K1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +430,7 @@
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,16 +459,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -492,23 +481,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/TC05_VerifyCheckinCheckoutDate.xlsx
+++ b/data/TC05_VerifyCheckinCheckoutDate.xlsx
@@ -64,10 +64,10 @@
     <t>Child</t>
   </si>
   <si>
-    <t>28/05/2016</t>
-  </si>
-  <si>
-    <t>29/05/2016</t>
+    <t>28/07/2017</t>
+  </si>
+  <si>
+    <t>29/07/2017</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
